--- a/spliced/falling/2023-03-21_15-34-35/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-35/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2705469131469726</v>
+        <v>-0.2052898406982422</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4402385950088501</v>
+        <v>0.80674147605896</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.731513738632202</v>
+        <v>-1.046440482139587</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.6277971267700195</v>
+        <v>-0.2705469131469726</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0076048374176025</v>
+        <v>0.4402385950088501</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.507715225219727</v>
+        <v>-1.731513738632202</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.914698600769043</v>
+        <v>-0.6277971267700195</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.449564576148987</v>
+        <v>0.0076048374176025</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.32840347290039</v>
+        <v>-1.507715225219727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.028462886810303</v>
+        <v>-2.914698600769043</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5502710342407227</v>
+        <v>-1.449564576148987</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.842555046081543</v>
+        <v>-3.32840347290039</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.341280460357666</v>
+        <v>1.028462886810303</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.225003957748413</v>
+        <v>-0.5502710342407227</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.344600677490234</v>
+        <v>-4.842555046081543</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.574896812438965</v>
+        <v>-1.341280460357666</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6133027076721191</v>
+        <v>-2.225003957748413</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.888121604919434</v>
+        <v>-6.344600677490234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-6.096681118011475</v>
+        <v>8.574896812438965</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8472604751586914</v>
+        <v>0.6133027076721191</v>
       </c>
       <c r="C8" t="n">
-        <v>14.72706890106201</v>
+        <v>-6.888121604919434</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.274323463439941</v>
+        <v>-6.096681118011475</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.468049049377441</v>
+        <v>0.8472604751586914</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.856836795806885</v>
+        <v>14.72706890106201</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-4.518700122833252</v>
+        <v>4.274323463439941</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.648021101951599</v>
+        <v>-4.468049049377441</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.9248533248901368</v>
+        <v>-6.856836795806885</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.755411148071287</v>
+        <v>-4.518700122833252</v>
       </c>
       <c r="B11" t="n">
-        <v>3.367114305496216</v>
+        <v>-1.648021101951599</v>
       </c>
       <c r="C11" t="n">
-        <v>2.822277307510376</v>
+        <v>-0.9248533248901368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.561064720153809</v>
+        <v>9.755411148071287</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1129603385925293</v>
+        <v>3.367114305496216</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.9029455184936525</v>
+        <v>2.822277307510376</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.92741584777832</v>
+        <v>1.561064720153809</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.8555939197540283</v>
+        <v>0.1129603385925293</v>
       </c>
       <c r="C13" t="n">
-        <v>4.797466278076172</v>
+        <v>-0.9029455184936525</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.122594833374023</v>
+        <v>5.92741584777832</v>
       </c>
       <c r="B14" t="n">
-        <v>1.295500755310059</v>
+        <v>-0.8555939197540283</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.442571401596069</v>
+        <v>4.797466278076172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.5986118316650391</v>
+        <v>1.122594833374023</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4096674025058746</v>
+        <v>1.295500755310059</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6679027080535889</v>
+        <v>-1.442571401596069</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0388402938842773</v>
+        <v>0.5986118316650391</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3524296283721924</v>
+        <v>0.4096674025058746</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.101761341094971</v>
+        <v>-0.6679027080535889</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.1728830337524414</v>
+        <v>0.0388402938842773</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6193998456001282</v>
+        <v>0.3524296283721924</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.6873818635940552</v>
+        <v>-1.101761341094971</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4876585006713867</v>
+        <v>-0.1728830337524414</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6636635065078735</v>
+        <v>0.6193998456001282</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.9166454076766968</v>
+        <v>-0.6873818635940552</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.1092472076416015</v>
+        <v>0.4876585006713867</v>
       </c>
       <c r="B19" t="n">
-        <v>0.732629120349884</v>
+        <v>0.6636635065078735</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.016466021537781</v>
+        <v>-0.9166454076766968</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4153709411621094</v>
+        <v>-0.1092472076416015</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5096800327301025</v>
+        <v>0.732629120349884</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.7671611309051514</v>
+        <v>-1.016466021537781</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.17730712890625</v>
+        <v>0.4153709411621094</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6253083348274231</v>
+        <v>0.5096800327301025</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.8837988376617432</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.0039987564086914</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.546174168586731</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.7374091148376465</v>
+        <v>-0.7671611309051514</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-34-35/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-35/accelerometer_selected.xlsx
@@ -452,222 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2052898406982422</v>
+        <v>-0.2705469131469726</v>
       </c>
       <c r="B2" t="n">
-        <v>0.80674147605896</v>
+        <v>0.4402385950088501</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.046440482139587</v>
+        <v>-1.731513738632202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.2705469131469726</v>
+        <v>-0.6277971267700195</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4402385950088501</v>
+        <v>0.0076048374176025</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.731513738632202</v>
+        <v>-1.507715225219727</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.6277971267700195</v>
+        <v>-2.914698600769043</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0076048374176025</v>
+        <v>-1.449564576148987</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.507715225219727</v>
+        <v>-3.32840347290039</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.914698600769043</v>
+        <v>1.028462886810303</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.449564576148987</v>
+        <v>-0.5502710342407227</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.32840347290039</v>
+        <v>-4.842555046081543</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.028462886810303</v>
+        <v>-1.341280460357666</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5502710342407227</v>
+        <v>-2.225003957748413</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.842555046081543</v>
+        <v>-6.344600677490234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.341280460357666</v>
+        <v>8.574896812438965</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.225003957748413</v>
+        <v>0.6133027076721191</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.344600677490234</v>
+        <v>-6.888121604919434</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.574896812438965</v>
+        <v>-6.096681118011475</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6133027076721191</v>
+        <v>0.8472604751586914</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.888121604919434</v>
+        <v>14.72706890106201</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-6.096681118011475</v>
+        <v>4.274323463439941</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8472604751586914</v>
+        <v>-4.468049049377441</v>
       </c>
       <c r="C9" t="n">
-        <v>14.72706890106201</v>
+        <v>-6.856836795806885</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.274323463439941</v>
+        <v>-4.518700122833252</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.468049049377441</v>
+        <v>-1.648021101951599</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.856836795806885</v>
+        <v>-0.9248533248901368</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-4.518700122833252</v>
+        <v>9.755411148071287</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.648021101951599</v>
+        <v>3.367114305496216</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.9248533248901368</v>
+        <v>2.822277307510376</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>9.755411148071287</v>
+        <v>1.561064720153809</v>
       </c>
       <c r="B12" t="n">
-        <v>3.367114305496216</v>
+        <v>0.1129603385925293</v>
       </c>
       <c r="C12" t="n">
-        <v>2.822277307510376</v>
+        <v>-0.9029455184936525</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.561064720153809</v>
+        <v>5.92741584777832</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1129603385925293</v>
+        <v>-0.8555939197540283</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.9029455184936525</v>
+        <v>4.797466278076172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.92741584777832</v>
+        <v>1.122594833374023</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.8555939197540283</v>
+        <v>1.295500755310059</v>
       </c>
       <c r="C14" t="n">
-        <v>4.797466278076172</v>
+        <v>-1.442571401596069</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.122594833374023</v>
+        <v>0.5986118316650391</v>
       </c>
       <c r="B15" t="n">
-        <v>1.295500755310059</v>
+        <v>0.4096674025058746</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.442571401596069</v>
+        <v>-0.6679027080535889</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.5986118316650391</v>
+        <v>0.0388402938842773</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4096674025058746</v>
+        <v>0.3524296283721924</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.6679027080535889</v>
+        <v>-1.101761341094971</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0388402938842773</v>
+        <v>-0.1728830337524414</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3524296283721924</v>
+        <v>0.6193998456001282</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.101761341094971</v>
+        <v>-0.6873818635940552</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1728830337524414</v>
+        <v>0.4876585006713867</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6193998456001282</v>
+        <v>0.6636635065078735</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.6873818635940552</v>
+        <v>-0.9166454076766968</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4876585006713867</v>
+        <v>-0.1092472076416015</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6636635065078735</v>
+        <v>0.732629120349884</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.9166454076766968</v>
+        <v>-1.016466021537781</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.1092472076416015</v>
+        <v>0.4153709411621094</v>
       </c>
       <c r="B20" t="n">
-        <v>0.732629120349884</v>
+        <v>0.5096800327301025</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.016466021537781</v>
+        <v>-0.7671611309051514</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4153709411621094</v>
+        <v>0.17730712890625</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5096800327301025</v>
+        <v>0.6253083348274231</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.7671611309051514</v>
+        <v>-0.8837988376617432</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-34-35/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-35/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.2705469131469726</v>
+        <v>-0.084752082824707</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4402385950088501</v>
+        <v>0.6204710006713867</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.731513738632202</v>
+        <v>-1.197814345359802</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.6277971267700195</v>
+        <v>-0.5587072372436523</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0076048374176025</v>
+        <v>0.5920883417129517</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.507715225219727</v>
+        <v>-0.9495211839675904</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.914698600769043</v>
+        <v>-0.2052898406982422</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.449564576148987</v>
+        <v>0.80674147605896</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.32840347290039</v>
+        <v>-1.046440482139587</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.028462886810303</v>
+        <v>-0.2705469131469726</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.5502710342407227</v>
+        <v>0.4402385950088501</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.842555046081543</v>
+        <v>-1.731513738632202</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.341280460357666</v>
+        <v>-0.6277971267700195</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.225003957748413</v>
+        <v>0.0076048374176025</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.344600677490234</v>
+        <v>-1.507715225219727</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.574896812438965</v>
+        <v>-2.914698600769043</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6133027076721191</v>
+        <v>-1.449564576148987</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.888121604919434</v>
+        <v>-3.32840347290039</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-6.096681118011475</v>
+        <v>1.028462886810303</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8472604751586914</v>
+        <v>-0.5502710342407227</v>
       </c>
       <c r="C8" t="n">
-        <v>14.72706890106201</v>
+        <v>-4.842555046081543</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.274323463439941</v>
+        <v>-1.341280460357666</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.468049049377441</v>
+        <v>-2.225003957748413</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.856836795806885</v>
+        <v>-6.344600677490234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-4.518700122833252</v>
+        <v>8.574896812438965</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.648021101951599</v>
+        <v>0.6133027076721191</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.9248533248901368</v>
+        <v>-6.888121604919434</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9.755411148071287</v>
+        <v>-6.096681118011475</v>
       </c>
       <c r="B11" t="n">
-        <v>3.367114305496216</v>
+        <v>0.8472604751586914</v>
       </c>
       <c r="C11" t="n">
-        <v>2.822277307510376</v>
+        <v>14.72706890106201</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.561064720153809</v>
+        <v>4.274323463439941</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1129603385925293</v>
+        <v>-4.468049049377441</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.9029455184936525</v>
+        <v>-6.856836795806885</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.92741584777832</v>
+        <v>-4.518700122833252</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.8555939197540283</v>
+        <v>-1.648021101951599</v>
       </c>
       <c r="C13" t="n">
-        <v>4.797466278076172</v>
+        <v>-0.9248533248901368</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.122594833374023</v>
+        <v>9.755411148071287</v>
       </c>
       <c r="B14" t="n">
-        <v>1.295500755310059</v>
+        <v>3.367114305496216</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.442571401596069</v>
+        <v>2.822277307510376</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.5986118316650391</v>
+        <v>1.561064720153809</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4096674025058746</v>
+        <v>0.1129603385925293</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6679027080535889</v>
+        <v>-0.9029455184936525</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0388402938842773</v>
+        <v>5.92741584777832</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3524296283721924</v>
+        <v>-0.8555939197540283</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.101761341094971</v>
+        <v>4.797466278076172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.1728830337524414</v>
+        <v>1.122594833374023</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6193998456001282</v>
+        <v>1.295500755310059</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.6873818635940552</v>
+        <v>-1.442571401596069</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4876585006713867</v>
+        <v>0.5986118316650391</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6636635065078735</v>
+        <v>0.4096674025058746</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.9166454076766968</v>
+        <v>-0.6679027080535889</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.1092472076416015</v>
+        <v>0.0388402938842773</v>
       </c>
       <c r="B19" t="n">
-        <v>0.732629120349884</v>
+        <v>0.3524296283721924</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.016466021537781</v>
+        <v>-1.101761341094971</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4153709411621094</v>
+        <v>-0.1728830337524414</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5096800327301025</v>
+        <v>0.6193998456001282</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.7671611309051514</v>
+        <v>-0.6873818635940552</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>0.4876585006713867</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6636635065078735</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.9166454076766968</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.1092472076416015</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.732629120349884</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.016466021537781</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.4153709411621094</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5096800327301025</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.7671611309051514</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>0.17730712890625</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>0.6253083348274231</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>-0.8837988376617432</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.0039987564086914</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.546174168586731</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.7374091148376465</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.0831842422485351</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5668889284133911</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.8130950927734375</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.0142126083374023</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.51572585105896</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.7260744571685791</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.1546173095703125</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5381616353988647</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.7814648151397705</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.2052326202392578</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5754936933517456</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.8383152484893799</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.07891082763671869</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5558477640151978</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.7180624008178711</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.1948976516723632</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.6977589726448059</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.9572491645812988</v>
       </c>
     </row>
   </sheetData>
